--- a/biology/Botanique/Aubrieta/Aubrieta.xlsx
+++ b/biology/Botanique/Aubrieta/Aubrieta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aubrieta  est un genre botanique qui regroupe environ 12 espèces de plantes à fleurs de la famille des brassicacées, originaires d'Europe et d'Asie centrale.
-Ce genre a été dédié par le naturaliste Michel Adanson au peintre et dessinateur Claude Aubriet[1].
+Ce genre a été dédié par le naturaliste Michel Adanson au peintre et dessinateur Claude Aubriet.
 Les Aubrieta sont des plantes herbacées vivaces, parfois appelées aubriètes ou aubriéties.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En avril-mai, les fleurs d'environ 2 cm de diamètre font leur apparition. Ces fleurs se composent de 4 pétales et leur cœur forme une croix de couleur blanche ou jaune[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En avril-mai, les fleurs d'environ 2 cm de diamètre font leur apparition. Ces fleurs se composent de 4 pétales et leur cœur forme une croix de couleur blanche ou jaune.
 Couleur du feuillage : vert,
 feuillaison : janvier à décembre,
 floraison : avril-mai,
@@ -550,9 +564,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (9 déc. 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (9 déc. 2017) :
 Aubrieta albanica
 Aubrieta anamasica
 Aubrieta canescens
